--- a/data/pca/factorExposure/factorExposure_2015-11-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01638902651405315</v>
+        <v>-0.01375254614892408</v>
       </c>
       <c r="C2">
-        <v>0.03195173754403623</v>
+        <v>0.03484764046082958</v>
       </c>
       <c r="D2">
-        <v>-0.09281079431046939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1250930638501464</v>
+      </c>
+      <c r="E2">
+        <v>-0.06925212554036586</v>
+      </c>
+      <c r="F2">
+        <v>0.02512599622876047</v>
+      </c>
+      <c r="G2">
+        <v>-0.07512134493667873</v>
+      </c>
+      <c r="H2">
+        <v>0.08501503698035648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01983523031677781</v>
+        <v>-0.01201143743747883</v>
       </c>
       <c r="C3">
-        <v>0.04816601230157396</v>
+        <v>0.03730593614005473</v>
       </c>
       <c r="D3">
-        <v>-0.1191394016647403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07374282259925899</v>
+      </c>
+      <c r="E3">
+        <v>-0.04430899114832138</v>
+      </c>
+      <c r="F3">
+        <v>0.04575025676223999</v>
+      </c>
+      <c r="G3">
+        <v>-0.1020307560496415</v>
+      </c>
+      <c r="H3">
+        <v>-0.0008622241520307263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05770244733620161</v>
+        <v>-0.05422377935273368</v>
       </c>
       <c r="C4">
-        <v>0.03914727076397749</v>
+        <v>0.06412730506697237</v>
       </c>
       <c r="D4">
-        <v>-0.128574899240124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1469752847248628</v>
+      </c>
+      <c r="E4">
+        <v>-0.05049618929351035</v>
+      </c>
+      <c r="F4">
+        <v>0.02065588651954333</v>
+      </c>
+      <c r="G4">
+        <v>0.0390467761632556</v>
+      </c>
+      <c r="H4">
+        <v>-0.02199730312268694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0425798511915574</v>
+        <v>-0.03989791705733141</v>
       </c>
       <c r="C6">
-        <v>0.01148204866443561</v>
+        <v>0.02789701467411129</v>
       </c>
       <c r="D6">
-        <v>-0.1346981031062396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1350648367345466</v>
+      </c>
+      <c r="E6">
+        <v>-0.0261260907012726</v>
+      </c>
+      <c r="F6">
+        <v>0.01602918736200998</v>
+      </c>
+      <c r="G6">
+        <v>-0.009019341721338203</v>
+      </c>
+      <c r="H6">
+        <v>0.01421084088634993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02136813685311252</v>
+        <v>-0.01434357904826677</v>
       </c>
       <c r="C7">
-        <v>0.01657738002987768</v>
+        <v>0.03112046549144978</v>
       </c>
       <c r="D7">
-        <v>-0.09949027950827981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09517891579076646</v>
+      </c>
+      <c r="E7">
+        <v>-0.02775015878331426</v>
+      </c>
+      <c r="F7">
+        <v>0.02288068425206299</v>
+      </c>
+      <c r="G7">
+        <v>-0.004892322166256694</v>
+      </c>
+      <c r="H7">
+        <v>0.1123772027997784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01082728861910403</v>
+        <v>-0.00678220191572493</v>
       </c>
       <c r="C8">
-        <v>0.02898314345703372</v>
+        <v>0.03771263762495908</v>
       </c>
       <c r="D8">
-        <v>-0.05668510145646164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07414864142358046</v>
+      </c>
+      <c r="E8">
+        <v>-0.03323431287022725</v>
+      </c>
+      <c r="F8">
+        <v>0.04407316968775215</v>
+      </c>
+      <c r="G8">
+        <v>-0.01915729184034302</v>
+      </c>
+      <c r="H8">
+        <v>0.03966200083655839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04592751887344393</v>
+        <v>-0.0423723137261961</v>
       </c>
       <c r="C9">
-        <v>0.04176341321500749</v>
+        <v>0.06086738181091207</v>
       </c>
       <c r="D9">
-        <v>-0.1131879163309153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1230650241112463</v>
+      </c>
+      <c r="E9">
+        <v>-0.03628890908750005</v>
+      </c>
+      <c r="F9">
+        <v>0.003065601479170011</v>
+      </c>
+      <c r="G9">
+        <v>0.02703037035946451</v>
+      </c>
+      <c r="H9">
+        <v>0.00768086475669747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09544830927582953</v>
+        <v>-0.142466049094065</v>
       </c>
       <c r="C10">
-        <v>-0.1892578492215417</v>
+        <v>-0.1878739474569803</v>
       </c>
       <c r="D10">
-        <v>0.0065750126707261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0009874830274145265</v>
+      </c>
+      <c r="E10">
+        <v>-0.04169485592047167</v>
+      </c>
+      <c r="F10">
+        <v>0.02475002880773153</v>
+      </c>
+      <c r="G10">
+        <v>0.03285146812445459</v>
+      </c>
+      <c r="H10">
+        <v>0.0009980781588434576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0337287239025286</v>
+        <v>-0.02813960673120389</v>
       </c>
       <c r="C11">
-        <v>0.03680002917505813</v>
+        <v>0.04452324780065671</v>
       </c>
       <c r="D11">
-        <v>-0.05816438159455341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05843099438734205</v>
+      </c>
+      <c r="E11">
+        <v>0.005785769225965093</v>
+      </c>
+      <c r="F11">
+        <v>0.0009147812751784686</v>
+      </c>
+      <c r="G11">
+        <v>-0.004470001290065322</v>
+      </c>
+      <c r="H11">
+        <v>0.04739601414785771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04013811125421065</v>
+        <v>-0.03353115577322543</v>
       </c>
       <c r="C12">
-        <v>0.03827473563693666</v>
+        <v>0.04593018099627778</v>
       </c>
       <c r="D12">
-        <v>-0.06204505886397223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05870789093739191</v>
+      </c>
+      <c r="E12">
+        <v>-0.000675074690009056</v>
+      </c>
+      <c r="F12">
+        <v>-0.00757331386123544</v>
+      </c>
+      <c r="G12">
+        <v>-0.004923962618401131</v>
+      </c>
+      <c r="H12">
+        <v>0.06100243960864893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01855490284778033</v>
+        <v>-0.01816375763440872</v>
       </c>
       <c r="C13">
-        <v>0.02857711164364469</v>
+        <v>0.03733619112630498</v>
       </c>
       <c r="D13">
-        <v>-0.1259304104727541</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1461246947406144</v>
+      </c>
+      <c r="E13">
+        <v>-0.04530593194539875</v>
+      </c>
+      <c r="F13">
+        <v>0.03905246438115122</v>
+      </c>
+      <c r="G13">
+        <v>-0.0149315860858543</v>
+      </c>
+      <c r="H13">
+        <v>0.09885094036266708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.00877383994638594</v>
+        <v>-0.008203218335422275</v>
       </c>
       <c r="C14">
-        <v>0.01416590319231804</v>
+        <v>0.02463593715172565</v>
       </c>
       <c r="D14">
-        <v>-0.08103073808367355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08942324876290868</v>
+      </c>
+      <c r="E14">
+        <v>-0.03481377848021252</v>
+      </c>
+      <c r="F14">
+        <v>-0.002010769874542829</v>
+      </c>
+      <c r="G14">
+        <v>-0.01772346098757428</v>
+      </c>
+      <c r="H14">
+        <v>0.09994946155990853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002280822788981042</v>
+        <v>-0.001170146429877978</v>
       </c>
       <c r="C15">
-        <v>0.002255940955354081</v>
+        <v>0.01153336507807044</v>
       </c>
       <c r="D15">
-        <v>-0.003221095134711008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.0337369198676438</v>
+      </c>
+      <c r="E15">
+        <v>-0.006985651378030275</v>
+      </c>
+      <c r="F15">
+        <v>-0.001683409333066932</v>
+      </c>
+      <c r="G15">
+        <v>-0.009941725795181759</v>
+      </c>
+      <c r="H15">
+        <v>0.008020813060803872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03399683436460666</v>
+        <v>-0.02911731355313493</v>
       </c>
       <c r="C16">
-        <v>0.03933724706446636</v>
+        <v>0.04448715958989268</v>
       </c>
       <c r="D16">
-        <v>-0.068453662203053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06454046753927638</v>
+      </c>
+      <c r="E16">
+        <v>-0.005994548478512848</v>
+      </c>
+      <c r="F16">
+        <v>-0.008015194782279491</v>
+      </c>
+      <c r="G16">
+        <v>-0.004475387827071875</v>
+      </c>
+      <c r="H16">
+        <v>0.05864066359078662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01106998599868054</v>
+        <v>-0.00763435447845131</v>
       </c>
       <c r="C19">
-        <v>0.02212587672936391</v>
+        <v>0.02011275284050096</v>
       </c>
       <c r="D19">
-        <v>-0.1621104254885422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1227869239499173</v>
+      </c>
+      <c r="E19">
+        <v>-0.06181853012469246</v>
+      </c>
+      <c r="F19">
+        <v>-0.002976314068012921</v>
+      </c>
+      <c r="G19">
+        <v>-0.02647226265137569</v>
+      </c>
+      <c r="H19">
+        <v>0.06374712264926846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01701053624182151</v>
+        <v>-0.01562350700642795</v>
       </c>
       <c r="C20">
-        <v>0.0256887771582735</v>
+        <v>0.03335184437969554</v>
       </c>
       <c r="D20">
-        <v>-0.08672711413084253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1000262414505043</v>
+      </c>
+      <c r="E20">
+        <v>-0.04911016907498318</v>
+      </c>
+      <c r="F20">
+        <v>-0.00259830605186365</v>
+      </c>
+      <c r="G20">
+        <v>-0.004552522113188791</v>
+      </c>
+      <c r="H20">
+        <v>0.05738025299970411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01313809021817335</v>
+        <v>-0.01336645937725552</v>
       </c>
       <c r="C21">
-        <v>0.03174349063824311</v>
+        <v>0.03825279850248812</v>
       </c>
       <c r="D21">
-        <v>-0.1271082079744034</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1414509435772748</v>
+      </c>
+      <c r="E21">
+        <v>-0.08613897138090774</v>
+      </c>
+      <c r="F21">
+        <v>0.005621113929491804</v>
+      </c>
+      <c r="G21">
+        <v>0.01694657662556025</v>
+      </c>
+      <c r="H21">
+        <v>0.1213715646869552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.007457113903735379</v>
+        <v>-0.005696410515552724</v>
       </c>
       <c r="C22">
-        <v>0.02727950465129793</v>
+        <v>0.04103849354427353</v>
       </c>
       <c r="D22">
-        <v>-0.09256105465642975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1465199646756298</v>
+      </c>
+      <c r="E22">
+        <v>-0.02630766847424067</v>
+      </c>
+      <c r="F22">
+        <v>0.08866328875133324</v>
+      </c>
+      <c r="G22">
+        <v>-0.0716555501890682</v>
+      </c>
+      <c r="H22">
+        <v>-0.06945460098659087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.007580831699321706</v>
+        <v>-0.005805288093675378</v>
       </c>
       <c r="C23">
-        <v>0.02721107419411975</v>
+        <v>0.04148601341970223</v>
       </c>
       <c r="D23">
-        <v>-0.09186806191330303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1459536679159885</v>
+      </c>
+      <c r="E23">
+        <v>-0.02659813164446569</v>
+      </c>
+      <c r="F23">
+        <v>0.0886492237191272</v>
+      </c>
+      <c r="G23">
+        <v>-0.07072719625813403</v>
+      </c>
+      <c r="H23">
+        <v>-0.06953606227214704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03709158932455384</v>
+        <v>-0.03043947153306439</v>
       </c>
       <c r="C24">
-        <v>0.04827089047804151</v>
+        <v>0.05605753016838972</v>
       </c>
       <c r="D24">
-        <v>-0.06694143263957048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06628216991229761</v>
+      </c>
+      <c r="E24">
+        <v>-0.01089752781837886</v>
+      </c>
+      <c r="F24">
+        <v>-0.004853869103666346</v>
+      </c>
+      <c r="G24">
+        <v>0.002141686225767643</v>
+      </c>
+      <c r="H24">
+        <v>0.0704880124054756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04070765028051849</v>
+        <v>-0.03472130517976719</v>
       </c>
       <c r="C25">
-        <v>0.04721869427379934</v>
+        <v>0.05365895376419175</v>
       </c>
       <c r="D25">
-        <v>-0.06682376060089036</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06329503510562758</v>
+      </c>
+      <c r="E25">
+        <v>-0.01218252069897287</v>
+      </c>
+      <c r="F25">
+        <v>0.000339654268288854</v>
+      </c>
+      <c r="G25">
+        <v>0.002456648410836842</v>
+      </c>
+      <c r="H25">
+        <v>0.0571299624112946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02057015874935572</v>
+        <v>-0.01912014901955273</v>
       </c>
       <c r="C26">
-        <v>0.006603575853694772</v>
+        <v>0.01799409979461577</v>
       </c>
       <c r="D26">
-        <v>-0.05226850823867175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06354278645966162</v>
+      </c>
+      <c r="E26">
+        <v>-0.0254736418859321</v>
+      </c>
+      <c r="F26">
+        <v>0.004877549507439106</v>
+      </c>
+      <c r="G26">
+        <v>-0.01065533900637195</v>
+      </c>
+      <c r="H26">
+        <v>0.06160230278710726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1448976341181443</v>
+        <v>-0.2025324103160872</v>
       </c>
       <c r="C28">
-        <v>-0.2725724056565281</v>
+        <v>-0.2512153165440848</v>
       </c>
       <c r="D28">
-        <v>0.03711778227370632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01455533652367918</v>
+      </c>
+      <c r="E28">
+        <v>-0.06956037531451854</v>
+      </c>
+      <c r="F28">
+        <v>0.005598105835298758</v>
+      </c>
+      <c r="G28">
+        <v>0.06251739774800845</v>
+      </c>
+      <c r="H28">
+        <v>0.01921394594011281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005569658235138888</v>
+        <v>-0.006034601842850437</v>
       </c>
       <c r="C29">
-        <v>0.0165116491339889</v>
+        <v>0.02363661161688626</v>
       </c>
       <c r="D29">
-        <v>-0.0655262217162127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08388518423459246</v>
+      </c>
+      <c r="E29">
+        <v>-0.02994487349619431</v>
+      </c>
+      <c r="F29">
+        <v>0.01218237094031172</v>
+      </c>
+      <c r="G29">
+        <v>0.001021682288173046</v>
+      </c>
+      <c r="H29">
+        <v>0.1058155816005666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0379937084582739</v>
+        <v>-0.04139705846553569</v>
       </c>
       <c r="C30">
-        <v>0.03441974486388259</v>
+        <v>0.05985749023849476</v>
       </c>
       <c r="D30">
-        <v>-0.1684651870433867</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1784204220514679</v>
+      </c>
+      <c r="E30">
+        <v>-0.01384434278040366</v>
+      </c>
+      <c r="F30">
+        <v>0.01025845851509432</v>
+      </c>
+      <c r="G30">
+        <v>-0.02402645992946069</v>
+      </c>
+      <c r="H30">
+        <v>-0.001651526874880914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06926469111659822</v>
+        <v>-0.05503362182866496</v>
       </c>
       <c r="C31">
-        <v>0.04652966055493877</v>
+        <v>0.07300126015313456</v>
       </c>
       <c r="D31">
-        <v>-0.06974897727915449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05582060961139137</v>
+      </c>
+      <c r="E31">
+        <v>-0.03091297083985749</v>
+      </c>
+      <c r="F31">
+        <v>0.03183062927280887</v>
+      </c>
+      <c r="G31">
+        <v>0.01580700388796858</v>
+      </c>
+      <c r="H31">
+        <v>0.04630746712342508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.005490470760394007</v>
+        <v>-0.01086191534011509</v>
       </c>
       <c r="C32">
-        <v>0.01719879926516585</v>
+        <v>0.0179341568565805</v>
       </c>
       <c r="D32">
-        <v>-0.06549204911715727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.106375314351848</v>
+      </c>
+      <c r="E32">
+        <v>-0.08707214249309844</v>
+      </c>
+      <c r="F32">
+        <v>0.01240484441841972</v>
+      </c>
+      <c r="G32">
+        <v>0.01773771776918406</v>
+      </c>
+      <c r="H32">
+        <v>0.1013474546141227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02479235353506098</v>
+        <v>-0.02310293514158714</v>
       </c>
       <c r="C33">
-        <v>0.02882223926519052</v>
+        <v>0.04277141156147449</v>
       </c>
       <c r="D33">
-        <v>-0.1323741911955885</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1326352168560205</v>
+      </c>
+      <c r="E33">
+        <v>-0.03883880227867084</v>
+      </c>
+      <c r="F33">
+        <v>0.01741107495859825</v>
+      </c>
+      <c r="G33">
+        <v>-0.007281868761543418</v>
+      </c>
+      <c r="H33">
+        <v>0.06637682629321696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03519333989260778</v>
+        <v>-0.02665616278950858</v>
       </c>
       <c r="C34">
-        <v>0.06057614644827487</v>
+        <v>0.06121375778385348</v>
       </c>
       <c r="D34">
-        <v>-0.0682122351055181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0553819842281093</v>
+      </c>
+      <c r="E34">
+        <v>0.00486374862298324</v>
+      </c>
+      <c r="F34">
+        <v>-0.00967407940675378</v>
+      </c>
+      <c r="G34">
+        <v>-0.007022522257738965</v>
+      </c>
+      <c r="H34">
+        <v>0.076776261647184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0007702011975057207</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.001018486664854601</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0052078308438723</v>
+      </c>
+      <c r="E35">
+        <v>-0.001120878905979314</v>
+      </c>
+      <c r="F35">
+        <v>9.754885887831636e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.001711497521888232</v>
+      </c>
+      <c r="H35">
+        <v>0.002211033919208969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02160815319153322</v>
+        <v>-0.01975661705237956</v>
       </c>
       <c r="C36">
-        <v>0.001523536723504528</v>
+        <v>0.01399682703352647</v>
       </c>
       <c r="D36">
-        <v>-0.07119265813924443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07671314047980193</v>
+      </c>
+      <c r="E36">
+        <v>-0.03108437400471597</v>
+      </c>
+      <c r="F36">
+        <v>0.003291549861719853</v>
+      </c>
+      <c r="G36">
+        <v>0.004629066666810098</v>
+      </c>
+      <c r="H36">
+        <v>0.05556901841677948</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02149634922323346</v>
+        <v>-0.02054025635492501</v>
       </c>
       <c r="C38">
-        <v>0.01445763124130559</v>
+        <v>0.01997779144705477</v>
       </c>
       <c r="D38">
-        <v>-0.05510941575306318</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06039759383961598</v>
+      </c>
+      <c r="E38">
+        <v>-0.03419628741972967</v>
+      </c>
+      <c r="F38">
+        <v>-0.007978837379823328</v>
+      </c>
+      <c r="G38">
+        <v>-0.03984973713648415</v>
+      </c>
+      <c r="H38">
+        <v>0.03790068555209307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03955184748482484</v>
+        <v>-0.03509644918527256</v>
       </c>
       <c r="C39">
-        <v>0.04777715472743455</v>
+        <v>0.06563300883654914</v>
       </c>
       <c r="D39">
-        <v>-0.09094767476877717</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1047895629049487</v>
+      </c>
+      <c r="E39">
+        <v>-0.005891061500735002</v>
+      </c>
+      <c r="F39">
+        <v>-0.02635581701281024</v>
+      </c>
+      <c r="G39">
+        <v>-0.00883839590703015</v>
+      </c>
+      <c r="H39">
+        <v>0.0847981081175927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01959747330046597</v>
+        <v>-0.01338704141989186</v>
       </c>
       <c r="C40">
-        <v>0.04514907571252402</v>
+        <v>0.03999533817772059</v>
       </c>
       <c r="D40">
-        <v>-0.080309521752385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08450270656908837</v>
+      </c>
+      <c r="E40">
+        <v>-0.06101770814989418</v>
+      </c>
+      <c r="F40">
+        <v>0.07110663243770068</v>
+      </c>
+      <c r="G40">
+        <v>-0.07411920295669061</v>
+      </c>
+      <c r="H40">
+        <v>0.1523483642536478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02506518103401749</v>
+        <v>-0.02398419044970654</v>
       </c>
       <c r="C41">
-        <v>-0.002791324667821512</v>
+        <v>0.008106838176590312</v>
       </c>
       <c r="D41">
-        <v>-0.06574348645794856</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05505679348343505</v>
+      </c>
+      <c r="E41">
+        <v>-0.05096307294797373</v>
+      </c>
+      <c r="F41">
+        <v>0.003093561525295106</v>
+      </c>
+      <c r="G41">
+        <v>-0.01677970001185816</v>
+      </c>
+      <c r="H41">
+        <v>0.04603238153540221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02968115302680988</v>
+        <v>-0.02369117713196798</v>
       </c>
       <c r="C43">
-        <v>0.007529610899152088</v>
+        <v>0.01786165767498363</v>
       </c>
       <c r="D43">
-        <v>-0.1011831310982667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08268115478852887</v>
+      </c>
+      <c r="E43">
+        <v>-0.03004476621993542</v>
+      </c>
+      <c r="F43">
+        <v>0.00615173158354113</v>
+      </c>
+      <c r="G43">
+        <v>-0.01823871502893567</v>
+      </c>
+      <c r="H43">
+        <v>0.06892464815708649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0171158686922472</v>
+        <v>-0.01749150859147838</v>
       </c>
       <c r="C44">
-        <v>0.04406440719424182</v>
+        <v>0.04274110638528078</v>
       </c>
       <c r="D44">
-        <v>-0.08031682372657939</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09877563370215428</v>
+      </c>
+      <c r="E44">
+        <v>-0.06270860470202438</v>
+      </c>
+      <c r="F44">
+        <v>0.01039592225258485</v>
+      </c>
+      <c r="G44">
+        <v>-0.01002842671704343</v>
+      </c>
+      <c r="H44">
+        <v>0.07329863024340046</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01963518178909698</v>
+        <v>-0.01473914418672918</v>
       </c>
       <c r="C46">
-        <v>0.0151967971940365</v>
+        <v>0.02982327184835365</v>
       </c>
       <c r="D46">
-        <v>-0.07433475565774875</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08824345863610604</v>
+      </c>
+      <c r="E46">
+        <v>-0.03689343286391881</v>
+      </c>
+      <c r="F46">
+        <v>-0.01290678209074041</v>
+      </c>
+      <c r="G46">
+        <v>0.007106854480217658</v>
+      </c>
+      <c r="H46">
+        <v>0.1099006923322225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09778122715473299</v>
+        <v>-0.08151963311113937</v>
       </c>
       <c r="C47">
-        <v>0.06539286432403077</v>
+        <v>0.09008504431997492</v>
       </c>
       <c r="D47">
-        <v>-0.04681795537291815</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0337933448641527</v>
+      </c>
+      <c r="E47">
+        <v>-0.03661217700056432</v>
+      </c>
+      <c r="F47">
+        <v>0.02151673594398655</v>
+      </c>
+      <c r="G47">
+        <v>0.03825913665613529</v>
+      </c>
+      <c r="H47">
+        <v>0.02825213064582279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01611552925358912</v>
+        <v>-0.01669687508377887</v>
       </c>
       <c r="C48">
-        <v>0.01282073245845796</v>
+        <v>0.01917325575852969</v>
       </c>
       <c r="D48">
-        <v>-0.06489955984390912</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07370419626892284</v>
+      </c>
+      <c r="E48">
+        <v>-0.04904371330467235</v>
+      </c>
+      <c r="F48">
+        <v>-0.0009505391367782766</v>
+      </c>
+      <c r="G48">
+        <v>0.001598157495837007</v>
+      </c>
+      <c r="H48">
+        <v>0.06185613731545071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.06288535491510795</v>
+        <v>-0.05274187627535535</v>
       </c>
       <c r="C50">
-        <v>0.0513124884301909</v>
+        <v>0.06729299000774476</v>
       </c>
       <c r="D50">
-        <v>-0.06502862437742525</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05621664814043917</v>
+      </c>
+      <c r="E50">
+        <v>-0.04048071974242865</v>
+      </c>
+      <c r="F50">
+        <v>0.03901055150210735</v>
+      </c>
+      <c r="G50">
+        <v>-0.01798020670767336</v>
+      </c>
+      <c r="H50">
+        <v>0.04549138865081443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01069966973596448</v>
+        <v>-0.01063516397148013</v>
       </c>
       <c r="C51">
-        <v>0.01656064329605374</v>
+        <v>0.02038343701971009</v>
       </c>
       <c r="D51">
-        <v>-0.07989286474851753</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08982150515399541</v>
+      </c>
+      <c r="E51">
+        <v>-0.01087154709576023</v>
+      </c>
+      <c r="F51">
+        <v>0.003890815465775442</v>
+      </c>
+      <c r="G51">
+        <v>-0.01996440726019971</v>
+      </c>
+      <c r="H51">
+        <v>0.06311375836547244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09044535647253922</v>
+        <v>-0.08492002027306574</v>
       </c>
       <c r="C53">
-        <v>0.08696284088839445</v>
+        <v>0.1032371220437898</v>
       </c>
       <c r="D53">
-        <v>-0.007979418957942935</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01225934761973323</v>
+      </c>
+      <c r="E53">
+        <v>-0.1082116540531706</v>
+      </c>
+      <c r="F53">
+        <v>0.04330028459037246</v>
+      </c>
+      <c r="G53">
+        <v>0.08417711063876714</v>
+      </c>
+      <c r="H53">
+        <v>0.0159809485146525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.0309588317265413</v>
+        <v>-0.02615021882644841</v>
       </c>
       <c r="C54">
-        <v>0.02652106117391622</v>
+        <v>0.03600359235947256</v>
       </c>
       <c r="D54">
-        <v>-0.09279881586181682</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08747756334842215</v>
+      </c>
+      <c r="E54">
+        <v>-0.03904710143603961</v>
+      </c>
+      <c r="F54">
+        <v>-0.01080111930261249</v>
+      </c>
+      <c r="G54">
+        <v>-0.02761951704509891</v>
+      </c>
+      <c r="H54">
+        <v>0.1133019950514604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09418441161681063</v>
+        <v>-0.083796643564158</v>
       </c>
       <c r="C55">
-        <v>0.05813901113969308</v>
+        <v>0.08164207058819126</v>
       </c>
       <c r="D55">
-        <v>0.01175503002443466</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.006686492597373068</v>
+      </c>
+      <c r="E55">
+        <v>-0.05945700481374962</v>
+      </c>
+      <c r="F55">
+        <v>0.03974489307726956</v>
+      </c>
+      <c r="G55">
+        <v>0.04306053147177046</v>
+      </c>
+      <c r="H55">
+        <v>0.0006798086448004146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1419676881252778</v>
+        <v>-0.1285194670074907</v>
       </c>
       <c r="C56">
-        <v>0.09223935040700833</v>
+        <v>0.1260076187628824</v>
       </c>
       <c r="D56">
-        <v>0.001523247803925418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.008134874887012518</v>
+      </c>
+      <c r="E56">
+        <v>-0.06396030752246207</v>
+      </c>
+      <c r="F56">
+        <v>0.03066969272201725</v>
+      </c>
+      <c r="G56">
+        <v>0.04492296393573585</v>
+      </c>
+      <c r="H56">
+        <v>0.006105238967379888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01748613106169773</v>
+        <v>-0.02800835159556907</v>
       </c>
       <c r="C58">
-        <v>-0.02173384234532682</v>
+        <v>0.01756083739199663</v>
       </c>
       <c r="D58">
-        <v>-0.3356371520839299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3761645733262905</v>
+      </c>
+      <c r="E58">
+        <v>-0.1867090967351668</v>
+      </c>
+      <c r="F58">
+        <v>0.1318669038336301</v>
+      </c>
+      <c r="G58">
+        <v>-0.2283726765468805</v>
+      </c>
+      <c r="H58">
+        <v>-0.4429597871621884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1377938262319809</v>
+        <v>-0.1804290138659475</v>
       </c>
       <c r="C59">
-        <v>-0.1967873419120294</v>
+        <v>-0.1691464539763152</v>
       </c>
       <c r="D59">
-        <v>-0.02814949461288313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05023561642779199</v>
+      </c>
+      <c r="E59">
+        <v>-0.01273516063177846</v>
+      </c>
+      <c r="F59">
+        <v>-0.04152721674103974</v>
+      </c>
+      <c r="G59">
+        <v>0.001364394504685514</v>
+      </c>
+      <c r="H59">
+        <v>-0.02299945182246553</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2451739813188643</v>
+        <v>-0.226501325286103</v>
       </c>
       <c r="C60">
-        <v>0.0552524239299784</v>
+        <v>0.1055058467650197</v>
       </c>
       <c r="D60">
-        <v>-0.1843395352992035</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1063019436889149</v>
+      </c>
+      <c r="E60">
+        <v>0.3638400558191098</v>
+      </c>
+      <c r="F60">
+        <v>0.03329646730618553</v>
+      </c>
+      <c r="G60">
+        <v>0.04144418865727417</v>
+      </c>
+      <c r="H60">
+        <v>-0.1099365450792137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0460074624054211</v>
+        <v>-0.03965963578995987</v>
       </c>
       <c r="C61">
-        <v>0.05020881033916502</v>
+        <v>0.06229299821543242</v>
       </c>
       <c r="D61">
-        <v>-0.09990238975206692</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09256281836570059</v>
+      </c>
+      <c r="E61">
+        <v>-0.001921630967827918</v>
+      </c>
+      <c r="F61">
+        <v>-0.01715823997175183</v>
+      </c>
+      <c r="G61">
+        <v>0.002951422519203358</v>
+      </c>
+      <c r="H61">
+        <v>0.08019659574119208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01821574496044235</v>
+        <v>-0.0149303576074408</v>
       </c>
       <c r="C63">
-        <v>0.02192033662470875</v>
+        <v>0.03306853405829861</v>
       </c>
       <c r="D63">
-        <v>-0.06037395475514714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06722516165811505</v>
+      </c>
+      <c r="E63">
+        <v>-0.0271046644418717</v>
+      </c>
+      <c r="F63">
+        <v>0.01762850628455647</v>
+      </c>
+      <c r="G63">
+        <v>-0.005331870899746342</v>
+      </c>
+      <c r="H63">
+        <v>0.04926445931515406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.06069793727614634</v>
+        <v>-0.05271471455014333</v>
       </c>
       <c r="C64">
-        <v>0.06592784434756417</v>
+        <v>0.08257191035973895</v>
       </c>
       <c r="D64">
-        <v>-0.06141638269373045</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.056006238711313</v>
+      </c>
+      <c r="E64">
+        <v>-0.02523095831466847</v>
+      </c>
+      <c r="F64">
+        <v>-0.01373138669995428</v>
+      </c>
+      <c r="G64">
+        <v>0.05019368691663822</v>
+      </c>
+      <c r="H64">
+        <v>0.06192050968235772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0476419648755228</v>
+        <v>-0.04582859818102777</v>
       </c>
       <c r="C65">
-        <v>0.004520289110902053</v>
+        <v>0.02584383908423254</v>
       </c>
       <c r="D65">
-        <v>-0.1133930812335726</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1154842854475048</v>
+      </c>
+      <c r="E65">
+        <v>-0.003298934001123223</v>
+      </c>
+      <c r="F65">
+        <v>0.01885966256530808</v>
+      </c>
+      <c r="G65">
+        <v>-0.0302488531731242</v>
+      </c>
+      <c r="H65">
+        <v>-0.02802306223019733</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04464462600585502</v>
+        <v>-0.03936370316511616</v>
       </c>
       <c r="C66">
-        <v>0.05618760518295533</v>
+        <v>0.07583925785847245</v>
       </c>
       <c r="D66">
-        <v>-0.1130973701300169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1314081476007771</v>
+      </c>
+      <c r="E66">
+        <v>-0.01096111690872593</v>
+      </c>
+      <c r="F66">
+        <v>-0.01185958545502268</v>
+      </c>
+      <c r="G66">
+        <v>-0.01781123337369721</v>
+      </c>
+      <c r="H66">
+        <v>0.05258963360389299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04141677120428498</v>
+        <v>-0.03761008795693555</v>
       </c>
       <c r="C67">
-        <v>0.01732486863928534</v>
+        <v>0.0264645704052491</v>
       </c>
       <c r="D67">
-        <v>-0.02574121101386943</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02105931728474666</v>
+      </c>
+      <c r="E67">
+        <v>-0.0136713185638851</v>
+      </c>
+      <c r="F67">
+        <v>-0.007347032054466111</v>
+      </c>
+      <c r="G67">
+        <v>-0.03633205687007859</v>
+      </c>
+      <c r="H67">
+        <v>0.03713871662724819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1559540412642549</v>
+        <v>-0.1972681311685072</v>
       </c>
       <c r="C68">
-        <v>-0.2409258941674653</v>
+        <v>-0.1991031568217394</v>
       </c>
       <c r="D68">
-        <v>0.02173446251331127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.0102847785198504</v>
+      </c>
+      <c r="E68">
+        <v>-0.05380657252542092</v>
+      </c>
+      <c r="F68">
+        <v>0.03049770691410758</v>
+      </c>
+      <c r="G68">
+        <v>-0.01293893362890563</v>
+      </c>
+      <c r="H68">
+        <v>-0.007044356745529629</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08896650982784798</v>
+        <v>-0.07420707100174953</v>
       </c>
       <c r="C69">
-        <v>0.08338412467933874</v>
+        <v>0.09694065577023324</v>
       </c>
       <c r="D69">
-        <v>-0.06552241914990518</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04613017871037373</v>
+      </c>
+      <c r="E69">
+        <v>-0.02557771378689119</v>
+      </c>
+      <c r="F69">
+        <v>0.007148379503903111</v>
+      </c>
+      <c r="G69">
+        <v>0.02601785234615019</v>
+      </c>
+      <c r="H69">
+        <v>0.04025923582953594</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1369653304332571</v>
+        <v>-0.1848521769158913</v>
       </c>
       <c r="C71">
-        <v>-0.2431750961357777</v>
+        <v>-0.2097610798188272</v>
       </c>
       <c r="D71">
-        <v>-0.013641656453908</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03540336713543154</v>
+      </c>
+      <c r="E71">
+        <v>-0.05267166779579985</v>
+      </c>
+      <c r="F71">
+        <v>0.03361926053463415</v>
+      </c>
+      <c r="G71">
+        <v>0.01443208312163844</v>
+      </c>
+      <c r="H71">
+        <v>0.02727949749128402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09666408426774027</v>
+        <v>-0.09755377056410718</v>
       </c>
       <c r="C72">
-        <v>0.03932109066386415</v>
+        <v>0.07097291031419327</v>
       </c>
       <c r="D72">
-        <v>-0.0885449793691449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09340270457109076</v>
+      </c>
+      <c r="E72">
+        <v>0.0381667797150301</v>
+      </c>
+      <c r="F72">
+        <v>0.03880060677917196</v>
+      </c>
+      <c r="G72">
+        <v>0.02975801570502401</v>
+      </c>
+      <c r="H72">
+        <v>0.03308430663372799</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2618557206591658</v>
+        <v>-0.2376396862573567</v>
       </c>
       <c r="C73">
-        <v>0.007828551662776694</v>
+        <v>0.08838007628255007</v>
       </c>
       <c r="D73">
-        <v>-0.2976491709049839</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.161378288137845</v>
+      </c>
+      <c r="E73">
+        <v>0.6710699968692181</v>
+      </c>
+      <c r="F73">
+        <v>0.02254587917707493</v>
+      </c>
+      <c r="G73">
+        <v>0.02957254738346085</v>
+      </c>
+      <c r="H73">
+        <v>-0.1582756486972954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.111252807438409</v>
+        <v>-0.09780193341792541</v>
       </c>
       <c r="C74">
-        <v>0.06667266902089498</v>
+        <v>0.09205492318445474</v>
       </c>
       <c r="D74">
-        <v>-0.01123518862911239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.002201080019433009</v>
+      </c>
+      <c r="E74">
+        <v>-0.07796636009231891</v>
+      </c>
+      <c r="F74">
+        <v>0.06261703112123143</v>
+      </c>
+      <c r="G74">
+        <v>0.05934231723886671</v>
+      </c>
+      <c r="H74">
+        <v>-0.02577390623990293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2525826469929202</v>
+        <v>-0.2269254876476303</v>
       </c>
       <c r="C75">
-        <v>0.12177207261806</v>
+        <v>0.1675561018629975</v>
       </c>
       <c r="D75">
-        <v>0.06923783667372825</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09733765153921629</v>
+      </c>
+      <c r="E75">
+        <v>-0.108990254398571</v>
+      </c>
+      <c r="F75">
+        <v>-0.00419858941733426</v>
+      </c>
+      <c r="G75">
+        <v>0.05670078203965357</v>
+      </c>
+      <c r="H75">
+        <v>-0.0915159629008567</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1438256877374317</v>
+        <v>-0.1265295451001134</v>
       </c>
       <c r="C76">
-        <v>0.08626910831267549</v>
+        <v>0.115444555024546</v>
       </c>
       <c r="D76">
-        <v>0.003596423936521318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.008755486782619906</v>
+      </c>
+      <c r="E76">
+        <v>-0.116248068028134</v>
+      </c>
+      <c r="F76">
+        <v>0.01649693317741988</v>
+      </c>
+      <c r="G76">
+        <v>0.04385746456239548</v>
+      </c>
+      <c r="H76">
+        <v>0.0152241636079861</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06661790468426543</v>
+        <v>-0.06139956998928423</v>
       </c>
       <c r="C77">
-        <v>0.0585743593155313</v>
+        <v>0.07090337816157787</v>
       </c>
       <c r="D77">
-        <v>-0.05328574723633413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1377776882392078</v>
+      </c>
+      <c r="E77">
+        <v>-0.2164788258853908</v>
+      </c>
+      <c r="F77">
+        <v>-0.282569359693812</v>
+      </c>
+      <c r="G77">
+        <v>-0.210756831731404</v>
+      </c>
+      <c r="H77">
+        <v>-0.3150067322782181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04272388487728306</v>
+        <v>-0.04331511655535706</v>
       </c>
       <c r="C78">
-        <v>0.05227137047902664</v>
+        <v>0.0660016262828643</v>
       </c>
       <c r="D78">
-        <v>-0.1212768345253668</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1312945345350722</v>
+      </c>
+      <c r="E78">
+        <v>-0.009976510685743675</v>
+      </c>
+      <c r="F78">
+        <v>0.01096690301409129</v>
+      </c>
+      <c r="G78">
+        <v>0.01406453903050679</v>
+      </c>
+      <c r="H78">
+        <v>0.02910411342828314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.02534739158593718</v>
+        <v>-0.04530957064039344</v>
       </c>
       <c r="C79">
-        <v>0.07799402778444685</v>
+        <v>0.09224489379568068</v>
       </c>
       <c r="D79">
-        <v>0.04809909029107216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01856422466807017</v>
+      </c>
+      <c r="E79">
+        <v>-0.2081477097780755</v>
+      </c>
+      <c r="F79">
+        <v>0.1349816198868183</v>
+      </c>
+      <c r="G79">
+        <v>0.741788559952931</v>
+      </c>
+      <c r="H79">
+        <v>-0.3361767868200639</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03301270018336346</v>
+        <v>-0.02560765288129753</v>
       </c>
       <c r="C80">
-        <v>0.02640396956244467</v>
+        <v>0.04416747608503708</v>
       </c>
       <c r="D80">
-        <v>-0.02727245929769754</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03275028100552451</v>
+      </c>
+      <c r="E80">
+        <v>-0.01626028948432034</v>
+      </c>
+      <c r="F80">
+        <v>-0.01853005422560515</v>
+      </c>
+      <c r="G80">
+        <v>-0.05094568969810365</v>
+      </c>
+      <c r="H80">
+        <v>0.002682077731912905</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1461270133762528</v>
+        <v>-0.1267764475047632</v>
       </c>
       <c r="C81">
-        <v>0.09171275667678565</v>
+        <v>0.1184861168201621</v>
       </c>
       <c r="D81">
-        <v>0.04726001933986022</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06407392000208899</v>
+      </c>
+      <c r="E81">
+        <v>-0.1161297407083054</v>
+      </c>
+      <c r="F81">
+        <v>0.02513286659453023</v>
+      </c>
+      <c r="G81">
+        <v>0.04483962521566948</v>
+      </c>
+      <c r="H81">
+        <v>-0.009177927079910525</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3150839008664681</v>
+        <v>-0.2510758588430353</v>
       </c>
       <c r="C82">
-        <v>0.2583019169958038</v>
+        <v>0.2645663533126835</v>
       </c>
       <c r="D82">
-        <v>0.227391496090322</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.238143124074655</v>
+      </c>
+      <c r="E82">
+        <v>0.01584305114107343</v>
+      </c>
+      <c r="F82">
+        <v>0.04766543892548356</v>
+      </c>
+      <c r="G82">
+        <v>0.05025647257139881</v>
+      </c>
+      <c r="H82">
+        <v>0.4655371674963198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02985764033562275</v>
+        <v>-0.02524535620254788</v>
       </c>
       <c r="C83">
-        <v>0.05161585073096816</v>
+        <v>0.04890696066612864</v>
       </c>
       <c r="D83">
-        <v>-0.04825167416983101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05209861681794465</v>
+      </c>
+      <c r="E83">
+        <v>-0.01662658543438528</v>
+      </c>
+      <c r="F83">
+        <v>-0.02616898790553403</v>
+      </c>
+      <c r="G83">
+        <v>-0.01778161013904473</v>
+      </c>
+      <c r="H83">
+        <v>0.02354801541741489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0006318452360023773</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004687880594093309</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01826571380122802</v>
+      </c>
+      <c r="E84">
+        <v>-0.01675566537517915</v>
+      </c>
+      <c r="F84">
+        <v>0.008400655061845739</v>
+      </c>
+      <c r="G84">
+        <v>-0.007882737524302569</v>
+      </c>
+      <c r="H84">
+        <v>0.0003763696271519111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1808439391943104</v>
+        <v>-0.1560130507766266</v>
       </c>
       <c r="C85">
-        <v>0.09235150434344613</v>
+        <v>0.135054777813019</v>
       </c>
       <c r="D85">
-        <v>0.03304645952885799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.05931154108797591</v>
+      </c>
+      <c r="E85">
+        <v>-0.0511755132560177</v>
+      </c>
+      <c r="F85">
+        <v>0.03253789616310237</v>
+      </c>
+      <c r="G85">
+        <v>0.09870757877020128</v>
+      </c>
+      <c r="H85">
+        <v>-0.07679242215677055</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01730665329701835</v>
+        <v>-0.02009071261979117</v>
       </c>
       <c r="C86">
-        <v>0.02767155150625561</v>
+        <v>0.02190610586733048</v>
       </c>
       <c r="D86">
-        <v>-0.1389233166772956</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1273315116922826</v>
+      </c>
+      <c r="E86">
+        <v>-0.003995954833513037</v>
+      </c>
+      <c r="F86">
+        <v>-0.01710824436880868</v>
+      </c>
+      <c r="G86">
+        <v>-0.004367602692568276</v>
+      </c>
+      <c r="H86">
+        <v>0.06806755682393877</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03179161419501617</v>
+        <v>-0.0363684445920307</v>
       </c>
       <c r="C87">
-        <v>0.0032839506267792</v>
+        <v>0.0244437941433214</v>
       </c>
       <c r="D87">
-        <v>-0.1011441894708431</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.136951692953201</v>
+      </c>
+      <c r="E87">
+        <v>-0.07514158921910891</v>
+      </c>
+      <c r="F87">
+        <v>-0.00717520213607986</v>
+      </c>
+      <c r="G87">
+        <v>-0.02049854448115495</v>
+      </c>
+      <c r="H87">
+        <v>0.02886880460862673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08052513494386808</v>
+        <v>-0.07135348765175357</v>
       </c>
       <c r="C88">
-        <v>0.03647408703000141</v>
+        <v>0.0554182774321364</v>
       </c>
       <c r="D88">
-        <v>-0.03439188683541476</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01907942119231764</v>
+      </c>
+      <c r="E88">
+        <v>-0.002926920650580856</v>
+      </c>
+      <c r="F88">
+        <v>0.01827791446226382</v>
+      </c>
+      <c r="G88">
+        <v>0.004499986395178094</v>
+      </c>
+      <c r="H88">
+        <v>0.0371075050646329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2032720699319226</v>
+        <v>-0.2827783426205175</v>
       </c>
       <c r="C89">
-        <v>-0.3977363244258076</v>
+        <v>-0.3532960586061872</v>
       </c>
       <c r="D89">
-        <v>0.03169237923329298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0009386969045281383</v>
+      </c>
+      <c r="E89">
+        <v>-0.04364527624336006</v>
+      </c>
+      <c r="F89">
+        <v>-0.0412952045908526</v>
+      </c>
+      <c r="G89">
+        <v>0.04179253644689476</v>
+      </c>
+      <c r="H89">
+        <v>0.08116246195871676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1862831338873575</v>
+        <v>-0.2396982647017211</v>
       </c>
       <c r="C90">
-        <v>-0.2979259122283352</v>
+        <v>-0.2504225594803202</v>
       </c>
       <c r="D90">
-        <v>0.02007685509569835</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01514552656894429</v>
+      </c>
+      <c r="E90">
+        <v>-0.04796327790987869</v>
+      </c>
+      <c r="F90">
+        <v>0.007241705123001725</v>
+      </c>
+      <c r="G90">
+        <v>-0.05174838859390393</v>
+      </c>
+      <c r="H90">
+        <v>0.04107940796002454</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1902747485925241</v>
+        <v>-0.15825136447202</v>
       </c>
       <c r="C91">
-        <v>0.1380782856019387</v>
+        <v>0.1591429216956446</v>
       </c>
       <c r="D91">
-        <v>0.07189195063248659</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08089445284041481</v>
+      </c>
+      <c r="E91">
+        <v>-0.1095080680420058</v>
+      </c>
+      <c r="F91">
+        <v>0.02095691023042097</v>
+      </c>
+      <c r="G91">
+        <v>0.09540297339278363</v>
+      </c>
+      <c r="H91">
+        <v>-0.07694787409164251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1657671551737208</v>
+        <v>-0.2254521452730462</v>
       </c>
       <c r="C92">
-        <v>-0.2951889311120781</v>
+        <v>-0.270062861563077</v>
       </c>
       <c r="D92">
-        <v>-0.006937456745094776</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03018138298085891</v>
+      </c>
+      <c r="E92">
+        <v>-0.08680015037477246</v>
+      </c>
+      <c r="F92">
+        <v>-0.01044850075658798</v>
+      </c>
+      <c r="G92">
+        <v>-0.01712393382594601</v>
+      </c>
+      <c r="H92">
+        <v>0.03891598374422059</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2168603596472468</v>
+        <v>-0.2649395545678577</v>
       </c>
       <c r="C93">
-        <v>-0.3244304555472466</v>
+        <v>-0.2641679010639176</v>
       </c>
       <c r="D93">
-        <v>0.002697619457143282</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.002458081273337956</v>
+      </c>
+      <c r="E93">
+        <v>-0.01157688401053159</v>
+      </c>
+      <c r="F93">
+        <v>0.01934142361799019</v>
+      </c>
+      <c r="G93">
+        <v>0.006791280723317761</v>
+      </c>
+      <c r="H93">
+        <v>-0.004243477820856382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.4018187305435803</v>
+        <v>-0.3371657864886036</v>
       </c>
       <c r="C94">
-        <v>0.210390548657282</v>
+        <v>0.2681229143340224</v>
       </c>
       <c r="D94">
-        <v>0.4500433697970971</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4262971233634065</v>
+      </c>
+      <c r="E94">
+        <v>-0.09656358375057171</v>
+      </c>
+      <c r="F94">
+        <v>-0.02187534714972778</v>
+      </c>
+      <c r="G94">
+        <v>-0.4650862220514201</v>
+      </c>
+      <c r="H94">
+        <v>-0.2215469649812228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.0774098572848666</v>
+        <v>-0.06825270000157989</v>
       </c>
       <c r="C95">
-        <v>0.06031122210176642</v>
+        <v>0.06573560110326949</v>
       </c>
       <c r="D95">
-        <v>-0.113139979195833</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08572997802858394</v>
+      </c>
+      <c r="E95">
+        <v>0.01053261376620316</v>
+      </c>
+      <c r="F95">
+        <v>-0.9062000358611636</v>
+      </c>
+      <c r="G95">
+        <v>0.1556311079795345</v>
+      </c>
+      <c r="H95">
+        <v>0.00608083357853963</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1701268204531534</v>
+        <v>-0.160931367111924</v>
       </c>
       <c r="C98">
-        <v>0.01450568239056752</v>
+        <v>0.06647307333638187</v>
       </c>
       <c r="D98">
-        <v>-0.170564742555237</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1215241651201654</v>
+      </c>
+      <c r="E98">
+        <v>0.3187046180874556</v>
+      </c>
+      <c r="F98">
+        <v>0.05112237424775499</v>
+      </c>
+      <c r="G98">
+        <v>0.05286987605770343</v>
+      </c>
+      <c r="H98">
+        <v>-0.04807889650644259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005491980368018875</v>
+        <v>-0.006115611437310482</v>
       </c>
       <c r="C101">
-        <v>0.01629944445612438</v>
+        <v>0.02290986598725298</v>
       </c>
       <c r="D101">
-        <v>-0.06617004343701054</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0837810559758994</v>
+      </c>
+      <c r="E101">
+        <v>-0.03040657539445998</v>
+      </c>
+      <c r="F101">
+        <v>0.01142428419303522</v>
+      </c>
+      <c r="G101">
+        <v>0.001683230359689747</v>
+      </c>
+      <c r="H101">
+        <v>0.1060069745920866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1311093679598492</v>
+        <v>-0.1064554262991587</v>
       </c>
       <c r="C102">
-        <v>0.1095553279073776</v>
+        <v>0.1184610447136202</v>
       </c>
       <c r="D102">
-        <v>0.0374483041418455</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05705558803664283</v>
+      </c>
+      <c r="E102">
+        <v>-0.03259393917340925</v>
+      </c>
+      <c r="F102">
+        <v>-0.02445171133264313</v>
+      </c>
+      <c r="G102">
+        <v>0.03055387057671709</v>
+      </c>
+      <c r="H102">
+        <v>0.03990343351673466</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
